--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
@@ -19,7 +19,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="144">
+  <si>
+    <t>Signal_Value_1</t>
+  </si>
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
   <si>
     <t>Signal_Value_25</t>
   </si>
@@ -736,15 +808,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CU6"/>
+  <dimension ref="A1:DS6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1040,10 +1112,82 @@
       <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:99">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1244,25 +1388,25 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.4227059363421588</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.06578473301828035</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.1275153822730551</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.04269178916126325</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.06484576086461655</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.1053691451084542</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1271,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.06304419831828581</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.005957675852389435</v>
+        <v>0</v>
       </c>
       <c r="CA2">
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.03890336911065064</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.00795597562398411</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.03669751311926647</v>
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -1301,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01012588600595163</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -1316,33 +1460,105 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>0.461778709020924</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>0.05690133223138657</v>
       </c>
       <c r="CP2">
-        <v>0</v>
+        <v>0.1991492003254553</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>0.02102393363326627</v>
       </c>
       <c r="CR2">
-        <v>0.003794644870401417</v>
+        <v>0.01250122488721562</v>
       </c>
       <c r="CS2">
-        <v>0</v>
+        <v>0.01752226808348539</v>
       </c>
       <c r="CT2">
-        <v>0.004607990331242381</v>
+        <v>0</v>
       </c>
       <c r="CU2">
         <v>0</v>
       </c>
+      <c r="CV2">
+        <v>0.01493984072489518</v>
+      </c>
+      <c r="CW2">
+        <v>0.09814261182854754</v>
+      </c>
+      <c r="CX2">
+        <v>0.02863857278314177</v>
+      </c>
+      <c r="CY2">
+        <v>0.01764154521224223</v>
+      </c>
+      <c r="CZ2">
+        <v>0.018115193907589</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0.04951055084200933</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0.003330863892020184</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0.0008041526278216472</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1543,37 +1759,37 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01640721081252504</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.3130748243644427</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.2769117236781629</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.08029580102114885</v>
+        <v>0</v>
       </c>
       <c r="BT3">
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.1137928369315358</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01526593092326119</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.05177677722200827</v>
+        <v>0</v>
       </c>
       <c r="BX3">
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.004719985190078639</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.03340220612611006</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1582,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.04700210166907482</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01021753106551277</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.03713307099613899</v>
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -1615,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0</v>
+        <v>0.3758820627906678</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>0.009418839479114857</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>0.2700306510658353</v>
       </c>
       <c r="CQ3">
-        <v>0</v>
+        <v>0.03518096193417433</v>
       </c>
       <c r="CR3">
         <v>0</v>
@@ -1633,15 +1849,87 @@
         <v>0</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>0.003335073914468975</v>
       </c>
       <c r="CU3">
         <v>0</v>
       </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0.1833047140175732</v>
+      </c>
+      <c r="CX3">
+        <v>0.01169705877078184</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0.03339856409040426</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0.03386005008823283</v>
+      </c>
+      <c r="DC3">
+        <v>0.02161606285478335</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0.01084042871778057</v>
+      </c>
+      <c r="DH3">
+        <v>0.01143553227618274</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:99">
+    <row r="4" spans="1:123">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1650,100 +1938,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04895182667398544</v>
+        <v>0.007987760524222634</v>
       </c>
       <c r="E4">
-        <v>0.05151734615735443</v>
+        <v>0.00453975399832735</v>
       </c>
       <c r="F4">
-        <v>0.03503350416128496</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.008705892759931071</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003232438266502352</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01512657448916611</v>
       </c>
       <c r="K4">
-        <v>0.007694559960135596</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05804362605112446</v>
+        <v>0.00609759000219267</v>
       </c>
       <c r="M4">
-        <v>0.09396087758704909</v>
+        <v>0.007332342217212072</v>
       </c>
       <c r="N4">
-        <v>0.03167887734882384</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.02517993074788459</v>
+        <v>0.03778707520372318</v>
       </c>
       <c r="Q4">
-        <v>0.07136494053934149</v>
+        <v>0.04404582833225529</v>
       </c>
       <c r="R4">
-        <v>0.09460081614613614</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1196221764025613</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.09360085364101749</v>
+        <v>0.003491024361690883</v>
       </c>
       <c r="U4">
-        <v>0.01505105183086493</v>
+        <v>0.003317046282051272</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.01126673841239092</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.009875944117437821</v>
       </c>
       <c r="Y4">
-        <v>0.01703112177042816</v>
+        <v>0.1782880695704287</v>
       </c>
       <c r="Z4">
-        <v>0.03039226896215791</v>
+        <v>0.1451782029382308</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01045613837458238</v>
+        <v>0.2108388470653761</v>
       </c>
       <c r="AC4">
-        <v>0.01144984248885231</v>
+        <v>0.1437184248886456</v>
       </c>
       <c r="AD4">
-        <v>0.08398838992224139</v>
+        <v>0.02036887272296248</v>
       </c>
       <c r="AE4">
-        <v>0.05552912717028268</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.02079649589407237</v>
+        <v>0.003905301254586739</v>
       </c>
       <c r="AG4">
-        <v>0.00175321620015875</v>
+        <v>0.07128570602643147</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.07554889759266786</v>
       </c>
       <c r="AI4">
-        <v>0.01036468094322692</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1937,10 +2225,82 @@
       <c r="CU4">
         <v>0</v>
       </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:123">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1961,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01688681928300778</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003915642227902274</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1979,25 +2339,25 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0009440514097819886</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0009239375515069308</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.01811239923886058</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.009875518925390028</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2012,49 +2372,49 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.09587008542845275</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.07938523972794662</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.130184786311819</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.1670152033993596</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.08885483533886847</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.03021873723961117</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.03119652475259536</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01677827151378841</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.01508370930701963</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.1264396040163877</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.1284242889234756</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.03989034540422615</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -2141,25 +2501,25 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.3720174631488403</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.09856167432464744</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.1922017922463169</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0749929756845335</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.06528056731492549</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.03436211242205402</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2168,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.03683042264633811</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -2177,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.04631611148075868</v>
+        <v>0</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.07132536454217549</v>
+        <v>0</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -2204,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.008111516189410294</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
@@ -2236,10 +2596,82 @@
       <c r="CU5">
         <v>0</v>
       </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:123">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2314,79 +2746,79 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.1054327513334213</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01849740167009705</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.0260233242146725</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.1236620836055742</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.02337912505879444</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.004660777340113766</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.00873571575614345</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.04299889310594025</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01752320267078562</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>0.02091798222311275</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.07871722121341747</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.03326472881131717</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>0.01028895727151434</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.06221864929047103</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.0999822417429397</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.1052622505937956</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>0.06282101999590088</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>0.02134795867549716</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>0.01812191769886459</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>0.01326082918477642</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -2398,16 +2830,16 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>0.002985997882848279</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>0.03743835230896095</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.03808255977724318</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>0.02437605857379762</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -2440,37 +2872,37 @@
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.003910122905935161</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.2546542562376047</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.3026242938100749</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.08164550971450804</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.09043133490418438</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01483144740039066</v>
+        <v>0</v>
       </c>
       <c r="BX6">
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01363764945311798</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.02872881380570465</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -2479,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.07909232820890717</v>
+        <v>0</v>
       </c>
       <c r="CD6">
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.1016483482845942</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -2494,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.002785089037388248</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -2503,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01492916609074375</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
@@ -2515,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.0005975447083740931</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.01048409543847212</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
         <v>0</v>
@@ -2533,6 +2965,78 @@
         <v>0</v>
       </c>
       <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
         <v>0</v>
       </c>
     </row>
@@ -2543,15 +3047,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CU6"/>
+  <dimension ref="A1:DS6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2847,10 +3351,82 @@
       <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:99">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3051,105 +3627,177 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.4227059363421588</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.4884906693604392</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.6160060516334942</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.6160060516334942</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.6586978407947575</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.723543601659374</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.8289127467678282</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.8289127467678282</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.8289127467678282</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.891956945086114</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.8979146209385035</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.8979146209385035</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.9368179900491541</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.9447739656731382</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.9814714787924047</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.9814714787924047</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.9814714787924047</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.9814714787924047</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.9814714787924047</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.9915973647983564</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.9915973647983564</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.9915973647983564</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.9915973647983564</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.9915973647983564</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.9915973647983564</v>
+        <v>0.461778709020924</v>
       </c>
       <c r="CO2">
-        <v>0.9915973647983564</v>
+        <v>0.5186800412523106</v>
       </c>
       <c r="CP2">
-        <v>0.9915973647983564</v>
+        <v>0.7178292415777658</v>
       </c>
       <c r="CQ2">
-        <v>0.9915973647983564</v>
+        <v>0.7388531752110321</v>
       </c>
       <c r="CR2">
-        <v>0.9953920096687577</v>
+        <v>0.7513544000982477</v>
       </c>
       <c r="CS2">
-        <v>0.9953920096687577</v>
+        <v>0.7688766681817331</v>
       </c>
       <c r="CT2">
-        <v>1</v>
+        <v>0.7688766681817331</v>
       </c>
       <c r="CU2">
-        <v>1</v>
+        <v>0.7688766681817331</v>
+      </c>
+      <c r="CV2">
+        <v>0.7838165089066282</v>
+      </c>
+      <c r="CW2">
+        <v>0.8819591207351758</v>
+      </c>
+      <c r="CX2">
+        <v>0.9105976935183175</v>
+      </c>
+      <c r="CY2">
+        <v>0.9282392387305598</v>
+      </c>
+      <c r="CZ2">
+        <v>0.9463544326381488</v>
+      </c>
+      <c r="DA2">
+        <v>0.9463544326381488</v>
+      </c>
+      <c r="DB2">
+        <v>0.9958649834801581</v>
+      </c>
+      <c r="DC2">
+        <v>0.9958649834801581</v>
+      </c>
+      <c r="DD2">
+        <v>0.9958649834801581</v>
+      </c>
+      <c r="DE2">
+        <v>0.9958649834801581</v>
+      </c>
+      <c r="DF2">
+        <v>0.9958649834801581</v>
+      </c>
+      <c r="DG2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DH2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DI2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DJ2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DK2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DL2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DM2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DN2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DO2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DP2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DQ2">
+        <v>0.9991958473721783</v>
+      </c>
+      <c r="DR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DS2">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3350,105 +3998,177 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01640721081252504</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.3294820351769678</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.6063937588551307</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.6866895598762796</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.6866895598762796</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.8004823968078154</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.8157483277310766</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.8675251049530849</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.8675251049530849</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.8722450901431635</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.9056472962692736</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.9056472962692736</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.9056472962692736</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.9526493979383485</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.9628669290038613</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>0.3758820627906678</v>
       </c>
       <c r="CO3">
-        <v>1</v>
+        <v>0.3853009022697826</v>
       </c>
       <c r="CP3">
-        <v>1</v>
+        <v>0.655331553335618</v>
       </c>
       <c r="CQ3">
-        <v>1</v>
+        <v>0.6905125152697923</v>
       </c>
       <c r="CR3">
-        <v>1</v>
+        <v>0.6905125152697923</v>
       </c>
       <c r="CS3">
-        <v>1</v>
+        <v>0.6905125152697923</v>
       </c>
       <c r="CT3">
-        <v>1</v>
+        <v>0.6938475891842613</v>
       </c>
       <c r="CU3">
+        <v>0.6938475891842613</v>
+      </c>
+      <c r="CV3">
+        <v>0.6938475891842613</v>
+      </c>
+      <c r="CW3">
+        <v>0.8771523032018345</v>
+      </c>
+      <c r="CX3">
+        <v>0.8888493619726163</v>
+      </c>
+      <c r="CY3">
+        <v>0.8888493619726163</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9222479260630205</v>
+      </c>
+      <c r="DA3">
+        <v>0.9222479260630205</v>
+      </c>
+      <c r="DB3">
+        <v>0.9561079761512533</v>
+      </c>
+      <c r="DC3">
+        <v>0.9777240390060367</v>
+      </c>
+      <c r="DD3">
+        <v>0.9777240390060367</v>
+      </c>
+      <c r="DE3">
+        <v>0.9777240390060367</v>
+      </c>
+      <c r="DF3">
+        <v>0.9777240390060367</v>
+      </c>
+      <c r="DG3">
+        <v>0.9885644677238172</v>
+      </c>
+      <c r="DH3">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>1</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DL3">
+        <v>1</v>
+      </c>
+      <c r="DM3">
+        <v>1</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DP3">
+        <v>1</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:99">
+    <row r="4" spans="1:123">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3457,97 +4177,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04895182667398544</v>
+        <v>0.007987760524222634</v>
       </c>
       <c r="E4">
-        <v>0.1004691728313399</v>
+        <v>0.01252751452254998</v>
       </c>
       <c r="F4">
-        <v>0.1355026769926248</v>
+        <v>0.01252751452254998</v>
       </c>
       <c r="G4">
-        <v>0.1355026769926248</v>
+        <v>0.01252751452254998</v>
       </c>
       <c r="H4">
-        <v>0.1442085697525559</v>
+        <v>0.01252751452254998</v>
       </c>
       <c r="I4">
-        <v>0.1474410080190583</v>
+        <v>0.01252751452254998</v>
       </c>
       <c r="J4">
-        <v>0.1474410080190583</v>
+        <v>0.0276540890117161</v>
       </c>
       <c r="K4">
-        <v>0.1551355679791939</v>
+        <v>0.0276540890117161</v>
       </c>
       <c r="L4">
-        <v>0.2131791940303183</v>
+        <v>0.03375167901390877</v>
       </c>
       <c r="M4">
-        <v>0.3071400716173674</v>
+        <v>0.04108402123112084</v>
       </c>
       <c r="N4">
-        <v>0.3388189489661912</v>
+        <v>0.04108402123112084</v>
       </c>
       <c r="O4">
-        <v>0.3388189489661912</v>
+        <v>0.04108402123112084</v>
       </c>
       <c r="P4">
-        <v>0.3639988797140759</v>
+        <v>0.07887109643484402</v>
       </c>
       <c r="Q4">
-        <v>0.4353638202534174</v>
+        <v>0.1229169247670993</v>
       </c>
       <c r="R4">
-        <v>0.5299646363995535</v>
+        <v>0.1229169247670993</v>
       </c>
       <c r="S4">
-        <v>0.6495868128021147</v>
+        <v>0.1229169247670993</v>
       </c>
       <c r="T4">
-        <v>0.7431876664431322</v>
+        <v>0.1264079491287902</v>
       </c>
       <c r="U4">
-        <v>0.7582387182739971</v>
+        <v>0.1297249954108415</v>
       </c>
       <c r="V4">
-        <v>0.7582387182739971</v>
+        <v>0.1409917338232324</v>
       </c>
       <c r="W4">
-        <v>0.7582387182739971</v>
+        <v>0.1409917338232324</v>
       </c>
       <c r="X4">
-        <v>0.7582387182739971</v>
+        <v>0.1508676779406702</v>
       </c>
       <c r="Y4">
-        <v>0.7752698400444253</v>
+        <v>0.3291557475110989</v>
       </c>
       <c r="Z4">
-        <v>0.8056621090065833</v>
+        <v>0.4743339504493297</v>
       </c>
       <c r="AA4">
-        <v>0.8056621090065833</v>
+        <v>0.4743339504493297</v>
       </c>
       <c r="AB4">
-        <v>0.8161182473811657</v>
+        <v>0.6851727975147057</v>
       </c>
       <c r="AC4">
-        <v>0.827568089870018</v>
+        <v>0.8288912224033513</v>
       </c>
       <c r="AD4">
-        <v>0.9115564797922593</v>
+        <v>0.8492600951263138</v>
       </c>
       <c r="AE4">
-        <v>0.967085606962542</v>
+        <v>0.8492600951263138</v>
       </c>
       <c r="AF4">
-        <v>0.9878821028566144</v>
+        <v>0.8531653963809006</v>
       </c>
       <c r="AG4">
-        <v>0.9896353190567732</v>
+        <v>0.9244511024073321</v>
       </c>
       <c r="AH4">
-        <v>0.9896353190567732</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -3744,10 +4464,82 @@
       <c r="CU4">
         <v>1</v>
       </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>1</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DH4">
+        <v>1</v>
+      </c>
+      <c r="DI4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>1</v>
+      </c>
+      <c r="DK4">
+        <v>1</v>
+      </c>
+      <c r="DL4">
+        <v>1</v>
+      </c>
+      <c r="DM4">
+        <v>1</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4">
+        <v>1</v>
+      </c>
+      <c r="DQ4">
+        <v>1</v>
+      </c>
+      <c r="DR4">
+        <v>1</v>
+      </c>
+      <c r="DS4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:123">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3768,247 +4560,247 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01688681928300778</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02080246151091006</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02080246151091006</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.02080246151091006</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02080246151091006</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02080246151091006</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.02174651292069204</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.02174651292069204</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.02267045047219897</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.02267045047219897</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.04078284971105955</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.04078284971105955</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.05065836863644958</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.05065836863644958</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.05065836863644958</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.05065836863644958</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.05065836863644958</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.1465284540649023</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.225913693792849</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.225913693792849</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.3560984801046679</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.5231136835040275</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.611968518842896</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.6421872560825073</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.6421872560825073</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.6733837808351026</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.6901620523488911</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.6901620523488911</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.7052457616559107</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.8316853656722983</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.9601096545957739</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.3720174631488403</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.4705791374734877</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.6627809297198046</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.6627809297198046</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0.7377739054043382</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.8030544727192637</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.8374165851413177</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.8374165851413177</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.8374165851413177</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0.8742470077876557</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0.8742470077876557</v>
+        <v>1</v>
       </c>
       <c r="CA5">
-        <v>0.8742470077876557</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9205631192684144</v>
+        <v>1</v>
       </c>
       <c r="CC5">
-        <v>0.9205631192684144</v>
+        <v>1</v>
       </c>
       <c r="CD5">
-        <v>0.9918884838105899</v>
+        <v>1</v>
       </c>
       <c r="CE5">
-        <v>0.9918884838105899</v>
+        <v>1</v>
       </c>
       <c r="CF5">
-        <v>0.9918884838105899</v>
+        <v>1</v>
       </c>
       <c r="CG5">
-        <v>0.9918884838105899</v>
+        <v>1</v>
       </c>
       <c r="CH5">
-        <v>0.9918884838105899</v>
+        <v>1</v>
       </c>
       <c r="CI5">
-        <v>0.9918884838105899</v>
+        <v>1</v>
       </c>
       <c r="CJ5">
-        <v>0.9918884838105899</v>
+        <v>1</v>
       </c>
       <c r="CK5">
         <v>1</v>
@@ -4043,10 +4835,82 @@
       <c r="CU5">
         <v>1</v>
       </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>1</v>
+      </c>
+      <c r="DG5">
+        <v>1</v>
+      </c>
+      <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
+        <v>1</v>
+      </c>
+      <c r="DJ5">
+        <v>1</v>
+      </c>
+      <c r="DK5">
+        <v>1</v>
+      </c>
+      <c r="DL5">
+        <v>1</v>
+      </c>
+      <c r="DM5">
+        <v>1</v>
+      </c>
+      <c r="DN5">
+        <v>1</v>
+      </c>
+      <c r="DO5">
+        <v>1</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>1</v>
+      </c>
+      <c r="DS5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:123">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4121,226 +4985,298 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.1054327513334213</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.1239301530035184</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.1499534772181909</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.2736155608237651</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.2969946858825595</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.3016554632226733</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.3016554632226733</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.3103911789788167</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.353390072084757</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.3709132747555426</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.3709132747555426</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>0.3918312569786553</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.4705484781920728</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.5038132070033899</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.5038132070033899</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>0.5141021642749043</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.5763208135653753</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.676303055308315</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.7815653059021106</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>0.8443863258980114</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.8443863258980114</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>0.8657342845735087</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>0.8838562022723733</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>0.8838562022723733</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>0.8971170314571497</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>0.8971170314571497</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>0.8971170314571497</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>0.8971170314571497</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>0.900103029339998</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>0.9375413816489589</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.9756239414262021</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP6">
-        <v>0.003910122905935161</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ6">
-        <v>0.2585643791435399</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR6">
-        <v>0.5611886729536147</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS6">
-        <v>0.6428341826681228</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT6">
-        <v>0.6428341826681228</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU6">
-        <v>0.7332655175723072</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV6">
-        <v>0.7332655175723072</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW6">
-        <v>0.7480969649726978</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX6">
-        <v>0.7480969649726978</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY6">
-        <v>0.7617346144258158</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ6">
-        <v>0.7904634282315205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA6">
-        <v>0.7904634282315205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB6">
-        <v>0.7904634282315205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC6">
-        <v>0.8695557564404277</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD6">
-        <v>0.8695557564404277</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CE6">
-        <v>0.9712041047250218</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF6">
-        <v>0.9712041047250218</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CG6">
-        <v>0.9712041047250218</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CH6">
-        <v>0.9739891937624101</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CI6">
-        <v>0.9739891937624101</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CJ6">
-        <v>0.9739891937624101</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CK6">
-        <v>0.9889183598531539</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CL6">
-        <v>0.9889183598531539</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CM6">
-        <v>0.9889183598531539</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CN6">
-        <v>0.9889183598531539</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CO6">
-        <v>0.989515904561528</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CV6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CW6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CX6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CY6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DA6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DB6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DC6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DI6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DL6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DM6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DN6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DO6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DP6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DQ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DR6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DS6">
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4358,66 +5294,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6160060516334942</v>
+        <v>0.5186800412523106</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -4426,39 +5362,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6063937588551307</v>
+        <v>0.655331553335618</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -4467,39 +5403,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04108402123112084</v>
       </c>
       <c r="F4">
-        <v>0.5299646363995535</v>
+        <v>0.6851727975147057</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -4508,39 +5444,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04078284971105955</v>
       </c>
       <c r="F5">
-        <v>0.6627809297198046</v>
+        <v>0.5231136835040275</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -4549,39 +5485,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5611886729536147</v>
+        <v>0.5038132070033899</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -4590,16 +5526,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4617,66 +5553,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.723543601659374</v>
+        <v>0.7178292415777658</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -4685,39 +5621,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8004823968078154</v>
+        <v>0.8771523032018345</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -4726,39 +5662,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04108402123112084</v>
       </c>
       <c r="F4">
-        <v>0.7431876664431322</v>
+        <v>0.8288912224033513</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -4767,39 +5703,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04078284971105955</v>
       </c>
       <c r="F5">
-        <v>0.7377739054043382</v>
+        <v>0.7052457616559107</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -4808,39 +5744,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7332655175723072</v>
+        <v>0.7815653059021106</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -4849,16 +5785,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4876,66 +5812,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8289127467678282</v>
+        <v>0.8819591207351758</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -4944,39 +5880,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8004823968078154</v>
+        <v>0.8771523032018345</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -4985,39 +5921,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04108402123112084</v>
       </c>
       <c r="F4">
-        <v>0.8056621090065833</v>
+        <v>0.8288912224033513</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -5026,39 +5962,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04078284971105955</v>
       </c>
       <c r="F5">
-        <v>0.8030544727192637</v>
+        <v>0.8316853656722983</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -5067,39 +6003,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8695557564404277</v>
+        <v>0.8443863258980114</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -5108,16 +6044,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5135,66 +6071,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9368179900491541</v>
+        <v>0.9105976935183175</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -5203,39 +6139,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9056472962692736</v>
+        <v>0.9222479260630205</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -5244,39 +6180,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04108402123112084</v>
       </c>
       <c r="F4">
-        <v>0.9115564797922593</v>
+        <v>0.9244511024073321</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -5285,39 +6221,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04078284971105955</v>
       </c>
       <c r="F5">
-        <v>0.9205631192684144</v>
+        <v>0.9601096545957739</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -5326,39 +6262,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9712041047250218</v>
+        <v>0.900103029339998</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -5367,16 +6303,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
